--- a/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-5thInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-5thInstallment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>OverDueTillDate</t>
   </si>
@@ -174,14 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +184,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -208,37 +216,6 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -272,17 +249,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -297,17 +268,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -593,37 +561,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8">
         <v>42078</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -637,106 +605,106 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="2">
         <v>5000</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>5000</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="3">
         <v>247.77</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
         <v>247.77</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -750,7 +718,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,201 +727,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="4">
         <v>42009</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6">
+      <c r="B2" s="3"/>
+      <c r="C2" s="2">
         <v>5000</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>42040</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
         <v>5000</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="3">
         <v>51.01</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
         <v>51.01</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>42068</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>5000</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <v>46.03</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>0.15</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <v>46.18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>42099</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>1004.1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="5">
         <v>3995.9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>50.95</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.43</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <v>1055.48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>42129</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>1015.65</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>2980.25</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>39.4</v>
       </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <v>1055.05</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>42160</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>1024.69</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>1955.56</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>30.36</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>1055.05</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>42190</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="5">
         <v>1035.78</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>919.78</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>19.27</v>
       </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <v>1055.05</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>42221</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>919.78</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
         <v>9.36</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>929.14</v>
       </c>
     </row>
@@ -967,7 +935,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,393 +944,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4">
         <v>42009</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2">
         <v>5000</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="3">
         <v>31</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="4">
         <v>42040</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>5000</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="3">
         <v>51.01</v>
       </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
         <v>51.01</v>
       </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7">
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
         <v>51.01</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>28</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="4">
         <v>42068</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>5000</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <v>46.49</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
         <v>0.15</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="3">
         <v>46.64</v>
       </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7">
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
         <v>46.64</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>31</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="4">
         <v>42099</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="9">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5">
         <v>1003.22</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <v>3996.78</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
         <v>51.83</v>
       </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <v>0.43</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="5">
         <v>1055.48</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="9">
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="5">
         <v>1055.48</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="4">
         <v>42129</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="5">
         <v>1015.64</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <v>2981.14</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <v>39.409999999999997</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
         <v>1055.05</v>
       </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="9">
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="5">
         <v>1055.05</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>31</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <v>42160</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5">
         <v>1024.67</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="5">
         <v>1956.47</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>30.38</v>
       </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
         <v>1055.05</v>
       </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="9">
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="5">
         <v>1055.05</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>30</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <v>42190</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5">
         <v>1035.77</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <v>920.7</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="3">
         <v>19.28</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
         <v>1055.05</v>
       </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="9">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="5">
         <v>1055.05</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>31</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="4">
         <v>42221</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <v>920.7</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>9.3699999999999992</v>
       </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>930.07</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7">
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3">
         <v>930.07</v>
       </c>
     </row>
@@ -1373,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,274 +1353,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>4035</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="3">
+        <v>446</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="4">
         <v>42094</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="7">
-        <v>52.46</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="9">
+      <c r="E2" s="3">
+        <v>52.31</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="5">
         <v>5143.2700000000004</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>4034</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="3">
+        <v>445</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="4">
         <v>42094</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>437</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42094</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3">
+        <v>51.88</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>444</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4">
+        <v>42063</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3">
+        <v>46.58</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="5">
+        <v>5090.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>443</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
+        <v>42063</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3">
         <v>0.01</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>4029</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>441</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="8">
-        <v>42094</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C7" s="4">
+        <v>42063</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E7" s="3">
         <v>0.01</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4023</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>439</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="8">
-        <v>42094</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C8" s="4">
+        <v>42063</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E8" s="3">
         <v>0.13</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>4016</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>435</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="8">
-        <v>42094</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C9" s="4">
+        <v>42063</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7">
-        <v>51.88</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>4028</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="E9" s="3">
+        <v>46.43</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>434</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="8">
-        <v>42063</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C10" s="4">
+        <v>42035</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44.38</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="5">
+        <v>5044.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>433</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4">
+        <v>42035</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7">
-        <v>46.43</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4015</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="E11" s="3">
+        <v>44.38</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>432</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="8">
-        <v>42063</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7">
-        <v>46.43</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="9">
-        <v>5090.8100000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>4013</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="8">
-        <v>42035</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="7">
-        <v>44.38</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="9">
-        <v>5044.38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>4012</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8">
-        <v>42035</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="7">
-        <v>44.38</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>4011</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="C12" s="4">
         <v>42009</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E12" s="2">
         <v>5000</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2">
         <v>5000</v>
       </c>
     </row>
@@ -1665,193 +1657,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="11"/>
-    <col min="5" max="5" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="4" width="9.140625" style="6"/>
+    <col min="5" max="6" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="4">
         <v>42051</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="4">
         <v>42052</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="4">
         <v>42053</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="4">
         <v>42078</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/43/waivecharge/215" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/43/waivecharge/215"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/43/waivecharge/216" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/43/waivecharge/216"/>
-    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/43/waivecharge/217" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/43/waivecharge/217"/>
-    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/43/waivecharge/218" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/43/waivecharge/218"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/12/waivecharge/63" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/63"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/12/waivecharge/64" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/64"/>
+    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/12/waivecharge/65" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/65"/>
+    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/12/waivecharge/66" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-5thInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5045-CompondingPenalityCharge-MoraoriumOnPrinciple2-BeforeAndAfterGracePeriod-5thInstallment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
@@ -167,7 +167,7 @@
     <t>$0.01</t>
   </si>
   <si>
-    <t>$0.43</t>
+    <t>$0.3</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +665,7 @@
         <v>247.77</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>97.04</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>0.57999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>0.57999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="G5" s="5">
-        <v>1055.48</v>
+        <v>1055.3499999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="K5" s="5">
-        <v>1055.48</v>
+        <v>1055.3499999999999</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="5">
-        <v>1055.48</v>
+        <v>1055.3499999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
@@ -1398,19 +1398,19 @@
         <v>31</v>
       </c>
       <c r="E2" s="3">
-        <v>52.31</v>
+        <v>52.18</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="5">
-        <v>5143.2700000000004</v>
+        <v>5143.1400000000003</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>30</v>
@@ -1422,7 +1422,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="3">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>30</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>30</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>30</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>30</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>30</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
@@ -1658,14 +1658,14 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="6"/>
-    <col min="5" max="6" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="5" max="7" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1840,10 +1840,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/12/waivecharge/63" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/63"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/12/waivecharge/64" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/64"/>
-    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/12/waivecharge/65" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/65"/>
-    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/12/waivecharge/66" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/12/waivecharge/66"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/20/waivecharge/88" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/20/waivecharge/88"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/20/waivecharge/91" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/20/waivecharge/91"/>
+    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/20/waivecharge/94" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/20/waivecharge/94"/>
+    <hyperlink ref="K6" r:id="rId4" location="/loanaccountcharge/20/waivecharge/97" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/20/waivecharge/97"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
